--- a/formative-elements/formative-elements.xlsx
+++ b/formative-elements/formative-elements.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\working_copies\SoilTaxonomy\formative-elements\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C350BE-FE36-4D8D-9609-542D178ACCCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9780" activeTab="1" xr2:uid="{728FE064-2144-4183-8F3E-A5F6ED41A2A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="2" r:id="rId1"/>
@@ -18,9 +12,9 @@
     <sheet name="greatgroup" sheetId="4" r:id="rId3"/>
     <sheet name="subgroup" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="490">
   <si>
     <t>element</t>
   </si>
@@ -776,27 +770,12 @@
     <t>presence of an albic horizon</t>
   </si>
   <si>
-    <t>anthr</t>
-  </si>
-  <si>
-    <t>specific human modifications</t>
-  </si>
-  <si>
     <t>aqu</t>
   </si>
   <si>
-    <t>characteristics associated with wetness</t>
-  </si>
-  <si>
     <t>ar</t>
   </si>
   <si>
-    <t>to plow</t>
-  </si>
-  <si>
-    <t>mixed horizon</t>
-  </si>
-  <si>
     <t>arg</t>
   </si>
   <si>
@@ -812,12 +791,6 @@
     <t>camb</t>
   </si>
   <si>
-    <t>to exchange</t>
-  </si>
-  <si>
-    <t>presence of a cambic horizon</t>
-  </si>
-  <si>
     <t>cry</t>
   </si>
   <si>
@@ -827,24 +800,15 @@
     <t>dur</t>
   </si>
   <si>
-    <t>a duripan</t>
-  </si>
-  <si>
     <t>fibr</t>
   </si>
   <si>
-    <t>least decomposed stage of organic material</t>
-  </si>
-  <si>
     <t>fluv</t>
   </si>
   <si>
     <t>river</t>
   </si>
   <si>
-    <t>flood plains</t>
-  </si>
-  <si>
     <t>fol</t>
   </si>
   <si>
@@ -857,12 +821,6 @@
     <t>gel</t>
   </si>
   <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>MAST &lt;= 0 degrees C</t>
-  </si>
-  <si>
     <t>gyps</t>
   </si>
   <si>
@@ -872,54 +830,24 @@
     <t>hem</t>
   </si>
   <si>
-    <t>intermediate state of decomposition</t>
-  </si>
-  <si>
     <t>hist</t>
   </si>
   <si>
-    <t>presence of organic soil materials</t>
-  </si>
-  <si>
     <t>hum</t>
   </si>
   <si>
-    <t>presence of organic matter</t>
-  </si>
-  <si>
     <t>orth</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>the common ones</t>
-  </si>
-  <si>
     <t>per</t>
   </si>
   <si>
-    <t>all year</t>
-  </si>
-  <si>
-    <t>perudic SMR</t>
-  </si>
-  <si>
     <t>psamm</t>
   </si>
   <si>
-    <t>sand textures</t>
-  </si>
-  <si>
     <t>rend</t>
   </si>
   <si>
-    <t>rendzina, limestone soil</t>
-  </si>
-  <si>
-    <t>high carbonate content</t>
-  </si>
-  <si>
     <t>sal</t>
   </si>
   <si>
@@ -929,9 +857,6 @@
     <t>most decomposed stage</t>
   </si>
   <si>
-    <t>most decomposed stage of organic matter</t>
-  </si>
-  <si>
     <t>torr</t>
   </si>
   <si>
@@ -941,9 +866,6 @@
     <t>turb</t>
   </si>
   <si>
-    <t>presence of cryoturbation</t>
-  </si>
-  <si>
     <t>ud</t>
   </si>
   <si>
@@ -965,9 +887,6 @@
     <t>wass</t>
   </si>
   <si>
-    <t>daily under shallow water</t>
-  </si>
-  <si>
     <t>xer</t>
   </si>
   <si>
@@ -1398,13 +1317,193 @@
   </si>
   <si>
     <t>ist</t>
+  </si>
+  <si>
+    <t>blanco</t>
+  </si>
+  <si>
+    <t>antrópico</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>arar</t>
+  </si>
+  <si>
+    <t>arcilla</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>cambiar</t>
+  </si>
+  <si>
+    <t>frío</t>
+  </si>
+  <si>
+    <t>duro</t>
+  </si>
+  <si>
+    <t>fibra</t>
+  </si>
+  <si>
+    <t>rio</t>
+  </si>
+  <si>
+    <t>hojas</t>
+  </si>
+  <si>
+    <t>congelado</t>
+  </si>
+  <si>
+    <t>yeso</t>
+  </si>
+  <si>
+    <t>medio</t>
+  </si>
+  <si>
+    <t>tejido</t>
+  </si>
+  <si>
+    <t>humus</t>
+  </si>
+  <si>
+    <t>verdadero</t>
+  </si>
+  <si>
+    <t>todo el año</t>
+  </si>
+  <si>
+    <t>arena</t>
+  </si>
+  <si>
+    <t>rendzina, suelo calcáreo</t>
+  </si>
+  <si>
+    <t>descompuesto</t>
+  </si>
+  <si>
+    <t>cálido, seco</t>
+  </si>
+  <si>
+    <t>disturbado</t>
+  </si>
+  <si>
+    <t>húmedo</t>
+  </si>
+  <si>
+    <t>quemado</t>
+  </si>
+  <si>
+    <t>vidiro</t>
+  </si>
+  <si>
+    <t>seco</t>
+  </si>
+  <si>
+    <t>antr</t>
+  </si>
+  <si>
+    <t>acu</t>
+  </si>
+  <si>
+    <t>cri</t>
+  </si>
+  <si>
+    <t>presencia de horizonte álbico</t>
+  </si>
+  <si>
+    <t>modificado por el hombre</t>
+  </si>
+  <si>
+    <t>acracterísticas asociadas con la humedad</t>
+  </si>
+  <si>
+    <t>horizonte mezclado</t>
+  </si>
+  <si>
+    <t>presencia de horizonte argílico</t>
+  </si>
+  <si>
+    <t>presencia de horizonte cálcico</t>
+  </si>
+  <si>
+    <t>presencia de horizonte cámbico</t>
+  </si>
+  <si>
+    <t>con duripán</t>
+  </si>
+  <si>
+    <t>material orgánico poco descompuesto</t>
+  </si>
+  <si>
+    <t>llanura de inundación</t>
+  </si>
+  <si>
+    <t>masa de hojas</t>
+  </si>
+  <si>
+    <t>temperatura media anunal del suelo &lt; 0 ºC</t>
+  </si>
+  <si>
+    <t>presencia de horizonte gypsico</t>
+  </si>
+  <si>
+    <t>material orgánico semi descompuesto</t>
+  </si>
+  <si>
+    <t>presencia de materiales orgánicos</t>
+  </si>
+  <si>
+    <t>presencia de materia orgánica</t>
+  </si>
+  <si>
+    <t>los más comunes</t>
+  </si>
+  <si>
+    <t>regimen de humedad perúdico</t>
+  </si>
+  <si>
+    <t>texturas arenosas</t>
+  </si>
+  <si>
+    <t>alto contenido de carbonatos</t>
+  </si>
+  <si>
+    <t>presencia de horizonte sálico</t>
+  </si>
+  <si>
+    <t>material orgánico muy descompuesto</t>
+  </si>
+  <si>
+    <t>régimen de humedad arídico/tórrico</t>
+  </si>
+  <si>
+    <t>presencia de crioturbación</t>
+  </si>
+  <si>
+    <t>régimen de humedad údico</t>
+  </si>
+  <si>
+    <t>régimen de humedad ústico</t>
+  </si>
+  <si>
+    <t>presencia de vidrio</t>
+  </si>
+  <si>
+    <t>diariamente bajo aguas poco profundas</t>
+  </si>
+  <si>
+    <t>régimen de humedad xérico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,7 +1617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1570,7 +1669,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1764,21 +1863,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A82754E-BD5E-44EE-AC40-E9D4E9923F00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
@@ -1788,7 +1887,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
@@ -1808,7 +1907,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>199</v>
       </c>
@@ -1822,7 +1921,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
@@ -1836,7 +1935,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>201</v>
       </c>
@@ -1850,7 +1949,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>202</v>
       </c>
@@ -1864,7 +1963,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>203</v>
       </c>
@@ -1878,7 +1977,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>204</v>
       </c>
@@ -1892,7 +1991,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>205</v>
       </c>
@@ -1906,7 +2005,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>206</v>
       </c>
@@ -1920,7 +2019,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>207</v>
       </c>
@@ -1934,7 +2033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>208</v>
       </c>
@@ -1948,7 +2047,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>209</v>
       </c>
@@ -1962,7 +2061,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>210</v>
       </c>
@@ -1982,14 +2081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2406C0-4B40-475B-B0B2-D2A68ED4FB2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="4" customWidth="1"/>
@@ -1999,7 +2098,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,345 +2115,345 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>430</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>247</v>
+        <v>458</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B27" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B28" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="B32" s="4" t="s">
-        <v>195</v>
+        <v>457</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>312</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -2363,14 +2462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4648FD0D-CFBB-44A9-AB17-265531B6E9AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
@@ -2378,7 +2477,7 @@
     <col min="4" max="16384" width="26.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2395,40 +2494,40 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>245</v>
       </c>
@@ -2439,64 +2538,64 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -2505,31 +2604,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>48</v>
@@ -2538,9 +2637,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>48</v>
@@ -2549,218 +2648,218 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>86</v>
@@ -2769,97 +2868,97 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>31</v>
@@ -2868,9 +2967,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>31</v>
@@ -2879,174 +2978,174 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>143</v>
@@ -3055,64 +3154,64 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>86</v>
@@ -3121,9 +3220,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>86</v>
@@ -3132,20 +3231,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>159</v>
@@ -3154,86 +3253,86 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>180</v>
@@ -3242,9 +3341,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>180</v>
@@ -3253,81 +3352,81 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3336,14 +3435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D2594B-1AEA-4072-B7F9-758DAECAB91F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
@@ -3357,21 +3456,21 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -3386,7 +3485,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3403,7 +3502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3437,7 +3536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3454,7 +3553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3471,7 +3570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3488,7 +3587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3505,7 +3604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -3522,7 +3621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -3539,7 +3638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -3556,7 +3655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -3573,7 +3672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3590,9 +3689,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="B14" s="2" t="b">
         <v>0</v>
@@ -3601,13 +3700,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -3624,7 +3723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -3641,7 +3740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -3658,7 +3757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -3675,7 +3774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -3692,7 +3791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -3709,7 +3808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -3726,7 +3825,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -3743,9 +3842,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B23" s="2" t="b">
         <v>0</v>
@@ -3754,13 +3853,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -3777,7 +3876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -3794,7 +3893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
@@ -3811,7 +3910,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
@@ -3828,7 +3927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
@@ -3845,7 +3944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -3862,7 +3961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>82</v>
       </c>
@@ -3879,7 +3978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
@@ -3896,7 +3995,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>88</v>
       </c>
@@ -3913,7 +4012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -3930,7 +4029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3947,7 +4046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -3964,7 +4063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -3981,7 +4080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
@@ -3998,7 +4097,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>106</v>
       </c>
@@ -4015,7 +4114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>109</v>
       </c>
@@ -4032,7 +4131,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>112</v>
       </c>
@@ -4049,7 +4148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
@@ -4066,7 +4165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>118</v>
       </c>
@@ -4083,7 +4182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
@@ -4100,7 +4199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -4117,7 +4216,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -4134,7 +4233,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>130</v>
       </c>
@@ -4151,7 +4250,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>133</v>
       </c>
@@ -4168,7 +4267,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>136</v>
       </c>
@@ -4185,7 +4284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>139</v>
       </c>
@@ -4202,7 +4301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -4219,7 +4318,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>145</v>
       </c>
@@ -4236,7 +4335,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
@@ -4253,7 +4352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>151</v>
       </c>
@@ -4270,7 +4369,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
@@ -4287,7 +4386,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>156</v>
       </c>
@@ -4304,7 +4403,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -4321,7 +4420,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>161</v>
       </c>
@@ -4338,7 +4437,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>164</v>
       </c>
@@ -4355,7 +4454,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>167</v>
       </c>
@@ -4372,7 +4471,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>169</v>
       </c>
@@ -4389,7 +4488,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>172</v>
       </c>
@@ -4406,7 +4505,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>173</v>
       </c>
@@ -4423,7 +4522,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>176</v>
       </c>
@@ -4440,7 +4539,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>179</v>
       </c>
@@ -4457,7 +4556,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>182</v>
       </c>
@@ -4474,7 +4573,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>185</v>
       </c>
@@ -4491,7 +4590,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
@@ -4508,7 +4607,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>191</v>
       </c>
@@ -4525,7 +4624,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>194</v>
       </c>
@@ -4542,9 +4641,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B70" s="2" t="b">
         <v>1</v>
@@ -4559,15 +4658,15 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B71" s="2" t="b">
         <v>1</v>
@@ -4582,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
